--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_ARKEMA, INC..xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_ARKEMA, INC..xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.34</v>
       </c>
-      <c r="D10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.4</v>
-      </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>4.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.097</v>
+        <v>0.022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64</v>
+        <v>0.058</v>
       </c>
       <c r="E10" t="n">
-        <v>0.59</v>
+        <v>0.053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.51</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
